--- a/biology/Botanique/Wartburg_(rose)/Wartburg_(rose).xlsx
+++ b/biology/Botanique/Wartburg_(rose)/Wartburg_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Wartburg' est un cultivar de rosier grimpant obtenu en 1910 par le rosiériste allemand Hermann Kiese (1865-1923), vivant alors en Thuringe près d'Erfurt. Cet hybride de Rosa multiflora est issu d'un semis de 'Tausendschön' (Kiese, 1906)[1]. Il doit son nom à la Wartburg, château-fort de Thuringe dans lequel Luther se réfugia de mai 1521 à mars 1522[2] et commença à traduire la Bible.
+'Wartburg' est un cultivar de rosier grimpant obtenu en 1910 par le rosiériste allemand Hermann Kiese (1865-1923), vivant alors en Thuringe près d'Erfurt. Cet hybride de Rosa multiflora est issu d'un semis de 'Tausendschön' (Kiese, 1906). Il doit son nom à la Wartburg, château-fort de Thuringe dans lequel Luther se réfugia de mai 1521 à mars 1522 et commença à traduire la Bible.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier grimpant vigoureux, au feuillage vert clair, atteint de très grandes dimensions puisqu'il peut monter jusqu'à 601 cm et facilement au-delà de 500 cm. Il peut aussi être conduit en un volumineux buisson. Il présente de juin à juillet de petites fleurs pleines rose carmin (26-40 pétales très ourlés), en de multiples grands bouquets, qui peuvent refleurir avec parcimonie à la fin de l'été ou au début de l'automne. C'est un rosier apprécié pour sa floraison exubérante et sa très grande rusticité, puisqu'il résiste à des hivers très froids (zone de rusticité 4b-9b)[1].   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier grimpant vigoureux, au feuillage vert clair, atteint de très grandes dimensions puisqu'il peut monter jusqu'à 601 cm et facilement au-delà de 500 cm. Il peut aussi être conduit en un volumineux buisson. Il présente de juin à juillet de petites fleurs pleines rose carmin (26-40 pétales très ourlés), en de multiples grands bouquets, qui peuvent refleurir avec parcimonie à la fin de l'été ou au début de l'automne. C'est un rosier apprécié pour sa floraison exubérante et sa très grande rusticité, puisqu'il résiste à des hivers très froids (zone de rusticité 4b-9b).   
 On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen.
 </t>
         </is>
